--- a/sources/modelo - barbosa.xlsx
+++ b/sources/modelo - barbosa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travessia\Documents\travessia-code\projeto-travessia\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F07E31A-1686-4BB8-8901-44EF9E7C8588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F74185-9886-44C9-A16E-FA7F0A05EC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{370DA055-CB71-4F1C-9B16-4AEA37A59957}"/>
   </bookViews>
